--- a/cache/daily/ch/202009080000..xlsx
+++ b/cache/daily/ch/202009080000..xlsx
@@ -15975,7 +15975,7 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -16003,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43617</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="196">
@@ -16040,7 +16040,9 @@
         <v>277</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>914</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -16069,7 +16071,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43755</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="197">
@@ -16110,7 +16112,9 @@
       <c r="M197" t="n">
         <v>1092</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>916</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>107</v>
@@ -16147,7 +16151,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43895</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="198">
@@ -16161,7 +16165,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1254</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -16172,18 +16178,26 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>171</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>511</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>3565</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>384</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>43895</v>
+        <v>43932</v>
       </c>
     </row>
   </sheetData>
@@ -31479,7 +31493,9 @@
         <v>7</v>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>84</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
@@ -31543,7 +31559,9 @@
         <v>7</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>85</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -31572,7 +31590,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="197">
@@ -31622,7 +31640,7 @@
         <v>41</v>
       </c>
       <c r="R197" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S197" t="n">
         <v>18</v>
@@ -31664,7 +31682,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>54</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -31675,15 +31695,23 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>8</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>25</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>350</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>9</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>2014</v>
@@ -46010,7 +46038,9 @@
       <c r="M197" t="n">
         <v>8</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>0</v>
@@ -46045,7 +46075,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198">
@@ -46059,7 +46089,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -46070,15 +46102,21 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>110</v>
@@ -58929,7 +58967,9 @@
       <c r="M197" t="n">
         <v>2</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -58968,7 +59008,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -58979,11 +59021,15 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -69010,7 +69056,9 @@
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -69062,7 +69110,9 @@
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -79752,7 +79802,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1154</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -79765,16 +79817,22 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>464</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>929</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>327</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>6909</v>
+        <v>6925</v>
       </c>
     </row>
   </sheetData>
